--- a/data/matrix.xlsx
+++ b/data/matrix.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20383"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\working_space\SSLDPCA-IL-FaultDetection\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4B738B-2578-48B5-851F-018F4EA44096}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
   <si>
     <t>NC</t>
   </si>
@@ -51,15 +59,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,345 +72,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -414,251 +95,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -673,61 +112,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1014,21 +409,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1096,7 +491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1129,10 +524,10 @@
       </c>
       <c r="K3">
         <f>SUM(A3:J3)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1168,7 +563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1204,7 +599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1224,7 +619,7 @@
         <v>2.8</v>
       </c>
       <c r="G6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H6">
         <v>0.8</v>
@@ -1237,10 +632,10 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1248,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D7">
         <v>0.1</v>
@@ -1260,7 +655,7 @@
         <v>93.2</v>
       </c>
       <c r="G7">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1276,7 +671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1312,7 +707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1345,10 +740,10 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1384,7 +779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1420,31 +815,30 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="11:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K12">
         <f>SUM(A2,B3,C4,D5,E6,F7,G8,H9,I10,J11)</f>
-        <v>927.6</v>
+        <v>927.59999999999991</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I6" sqref="A1:K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1512,7 +906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1545,10 +939,10 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1581,10 +975,10 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1617,10 +1011,10 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1656,7 +1050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1692,7 +1086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1728,7 +1122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1764,7 +1158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1797,10 +1191,10 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1836,31 +1230,30 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="11:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K12">
         <f>SUM(A2,B3,C4,D5,E6,F7,G8,H9,I10,J11)</f>
-        <v>911.8</v>
+        <v>911.80000000000007</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1892,7 +1285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1928,7 +1321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1936,7 +1329,7 @@
         <v>93.3</v>
       </c>
       <c r="C3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3">
         <v>3.4</v>
@@ -1964,7 +1357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1984,7 +1377,7 @@
         <v>0.2</v>
       </c>
       <c r="G4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2000,7 +1393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2036,7 +1429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2072,7 +1465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2108,7 +1501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2144,7 +1537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2180,7 +1573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2203,7 +1596,7 @@
         <v>0.3</v>
       </c>
       <c r="H10">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I10">
         <v>90.8</v>
@@ -2216,7 +1609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2252,15 +1645,844 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="11:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="K12">
         <f>SUM(A2,B3,C4,D5,E6,F7,G8,H9,I10,J11)</f>
         <v>923</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5605B3-3A49-4F7B-ABA3-8ED8B0FA8C08}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUM(A2:J2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>92.8</v>
+      </c>
+      <c r="C3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>1.8</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
+      </c>
+      <c r="K3">
+        <f>SUM(A3:J3)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>89.2</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>4.7</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K11" si="0">SUM(A4:J4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>92.7</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>3.2</v>
+      </c>
+      <c r="H5">
+        <v>0.3</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>3.3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>93.6</v>
+      </c>
+      <c r="F6">
+        <v>2.8</v>
+      </c>
+      <c r="G6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2.1</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+      <c r="F7">
+        <v>92.2</v>
+      </c>
+      <c r="G7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2.1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2.8</v>
+      </c>
+      <c r="F8">
+        <v>3.2</v>
+      </c>
+      <c r="G8">
+        <v>93.4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>0.4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>92.4</v>
+      </c>
+      <c r="I9">
+        <v>3.7</v>
+      </c>
+      <c r="J9">
+        <v>2.4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>4.3</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>3.4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I10">
+        <v>90.3</v>
+      </c>
+      <c r="J10">
+        <v>0.7</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I11">
+        <v>5.3</v>
+      </c>
+      <c r="J11">
+        <v>91</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <f>SUM(A2,B3,C4,D5,E6,F7,G8,H9,I10,J11)</f>
+        <v>927.59999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E57EF82-8162-4FC0-83DE-4D9FD1E9C532}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K11" si="0">SUM(A2:J2)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>91.1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>5.2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.6</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>90.9</v>
+      </c>
+      <c r="D4">
+        <v>3.2</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>3.4</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>90.6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5">
+        <v>4.7</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>4.3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <v>88.6</v>
+      </c>
+      <c r="F6">
+        <v>4.3</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>5.2</v>
+      </c>
+      <c r="F7">
+        <v>88.9</v>
+      </c>
+      <c r="G7">
+        <v>3.9</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <v>0.8</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>1.4</v>
+      </c>
+      <c r="E8">
+        <v>3.3</v>
+      </c>
+      <c r="F8">
+        <v>3.7</v>
+      </c>
+      <c r="G8">
+        <v>89.6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+      <c r="J8">
+        <v>1.3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1.9</v>
+      </c>
+      <c r="F9">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>90.3</v>
+      </c>
+      <c r="I9">
+        <v>2.7</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.4</v>
+      </c>
+      <c r="H10">
+        <v>5.7</v>
+      </c>
+      <c r="I10">
+        <v>89.1</v>
+      </c>
+      <c r="J10">
+        <v>3.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0.7</v>
+      </c>
+      <c r="H11">
+        <v>4.5</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>91.7</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K12">
+        <f>SUM(A2,B3,C4,D5,E6,F7,G8,H9,I10,J11)</f>
+        <v>910.80000000000007</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>